--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\X8 Store\6.Source\WMS\Document\2.Design\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF62557-B6EE-4478-9FFF-CE95D7CFE8FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804CB18-10A7-418E-A7A6-B203370DE26C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>STT</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Dài(cm)</t>
+  </si>
+  <si>
+    <t>Thùng</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -320,6 +323,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -638,7 +642,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,10 +704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D873F7-52EF-45C9-A991-9A58CF190C43}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,6 +876,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2804CB18-10A7-418E-A7A6-B203370DE26C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88455BFE-24FF-4B14-B04E-52B1A889586C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,7 +642,7 @@
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,10 +652,11 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="13.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" customWidth="1"/>
     <col min="7" max="7" width="13.26953125" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="5" customWidth="1"/>
-    <col min="9" max="12" width="8.7265625" style="5"/>
+    <col min="9" max="9" width="8.6328125" style="5" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88455BFE-24FF-4B14-B04E-52B1A889586C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99812984-7580-47ED-B35D-E90C3E34D957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>STT</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Thùng</t>
+  </si>
+  <si>
+    <t>Định mức tồn kho</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -322,8 +325,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -639,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,13 +657,14 @@
     <col min="4" max="4" width="13.08984375" customWidth="1"/>
     <col min="5" max="5" width="11.1796875" customWidth="1"/>
     <col min="6" max="6" width="10.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.6328125" style="5" customWidth="1"/>
-    <col min="10" max="12" width="8.7265625" style="5"/>
+    <col min="7" max="7" width="13.26953125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="8.6328125" style="6" customWidth="1"/>
+    <col min="10" max="12" width="8.7265625" style="6"/>
+    <col min="13" max="13" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,6 +700,9 @@
       </c>
       <c r="L1" s="4" t="s">
         <v>28</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -878,10 +886,10 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
     </row>

--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99812984-7580-47ED-B35D-E90C3E34D957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB96AB5-235E-49DE-A91D-3A57F5057929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,7 +661,7 @@
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.6328125" style="6" customWidth="1"/>
     <col min="10" max="12" width="8.7265625" style="6"/>
-    <col min="13" max="13" width="8.7265625" style="7"/>
+    <col min="13" max="13" width="9.08984375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB96AB5-235E-49DE-A91D-3A57F5057929}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE09E1-29EA-4CCD-943D-11E46B6112B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,7 +661,7 @@
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.6328125" style="6" customWidth="1"/>
     <col min="10" max="12" width="8.7265625" style="6"/>
-    <col min="13" max="13" width="9.08984375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">

--- a/2.Design/Template/Bieu_mau_hang_hoa.xlsx
+++ b/2.Design/Template/Bieu_mau_hang_hoa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2.DoanLV4_Document\LogDez\1.Document\WMS_Documents\2.Design\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DE09E1-29EA-4CCD-943D-11E46B6112B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D3CAFA-E6A2-4D92-ABFC-5676013DFCDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -646,7 +646,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,7 +661,7 @@
     <col min="8" max="8" width="12.90625" style="6" customWidth="1"/>
     <col min="9" max="9" width="8.6328125" style="6" customWidth="1"/>
     <col min="10" max="12" width="8.7265625" style="6"/>
-    <col min="13" max="13" width="8.6328125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="9.26953125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.35">
